--- a/MostarConstruct/dokumenti/Z5/Učešće članova u implementaciji/Ucesce_clanova_u_implementaciji.xlsx
+++ b/MostarConstruct/dokumenti/Z5/Učešće članova u implementaciji/Ucesce_clanova_u_implementaciji.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibrah\Source\Repos\Seminarski\MostarConstruct\dokumenti\Z5\Učešće članova u implementaciji\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E6F4A-2961-4C0B-A66A-26035F38C022}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Login</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Ibrahim</t>
   </si>
   <si>
-    <t>Stanje na dan 26.02.2018</t>
-  </si>
-  <si>
     <t>Evidencija lokacija</t>
   </si>
   <si>
@@ -120,6 +118,9 @@
   </si>
   <si>
     <t>Slanje pristupnih podataka putem maila</t>
+  </si>
+  <si>
+    <t>Stanje na dan 09.03.2018</t>
   </si>
 </sst>
 </file>
@@ -182,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,12 +206,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,60 +293,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,14 +681,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -684,19 +701,19 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="H3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -724,11 +741,11 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -759,9 +776,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -773,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F6:F29" si="0">SUM(C6:E6)</f>
+        <f t="shared" ref="F6:F26" si="0">SUM(C6:E6)</f>
         <v>1</v>
       </c>
       <c r="G6" s="14"/>
@@ -787,14 +804,14 @@
         <v>0</v>
       </c>
       <c r="K6" s="10">
-        <f t="shared" ref="K6:K29" si="1">SUM(H6:J6)</f>
+        <f t="shared" ref="K6:K26" si="1">SUM(H6:J6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -825,11 +842,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="20">
+        <v>11</v>
+      </c>
+      <c r="C8" s="17">
         <v>0</v>
       </c>
       <c r="D8" s="4">
@@ -858,9 +875,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -891,11 +908,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
+      <c r="A10" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -926,7 +943,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -934,24 +951,24 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="4">
+      <c r="H11" s="18">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
@@ -959,17 +976,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="10">
@@ -977,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="10">
@@ -992,15 +1009,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1011,10 +1030,10 @@
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -1025,9 +1044,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="24"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1035,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
@@ -1049,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="1"/>
@@ -1060,32 +1077,32 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="1"/>
@@ -1093,18 +1110,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="20">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
@@ -1115,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
@@ -1126,9 +1143,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1159,7 +1176,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1192,18 +1209,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
@@ -1211,13 +1230,13 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="10">
         <f t="shared" si="1"/>
@@ -1225,19 +1244,17 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="10">
@@ -1245,11 +1262,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="3">
-        <v>1</v>
+      <c r="H20" s="4">
+        <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1260,15 +1277,15 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1279,10 +1296,10 @@
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1293,15 +1310,15 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1312,10 +1329,10 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1326,7 +1343,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1359,18 +1376,18 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
@@ -1381,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="1"/>
@@ -1392,18 +1409,18 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="0"/>
@@ -1411,13 +1428,13 @@
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" si="1"/>
@@ -1425,9 +1442,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1458,127 +1475,49 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A26"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:E27 C28:F29 H28:J29">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="C27:F28 C5:E26 H5:J28">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0.59</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0.69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0.59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0.69</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
